--- a/ddprimer/test_data/Sequences.xlsx
+++ b/ddprimer/test_data/Sequences.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakob/ddPrimer/test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakob/ddPrimer/ddprimer/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12045B74-2E1D-6747-81B1-22233B33DB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05988E26-51A0-4B4E-A302-CC5506BC0300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>sequence name</t>
   </si>
@@ -99,6 +99,24 @@
   </si>
   <si>
     <t>sequence</t>
+  </si>
+  <si>
+    <t>CCCAACAATCCAACTCACGTTGAGATCCGCCAAAACGTCCACATTGGCTGTGTTCAGGCGGAGAGTCACCAACGTGGGACCACCGTCGTCGGTCTACACCGCCACCGTCCGAGCACCGAAAGGAGTAGAAATCACGGTGGAGCCACAGAGTTTGTCATTTTCAAAGGCTTCACAAAAGAGAAGCTTCAAAGTGGTGGT</t>
+  </si>
+  <si>
+    <t>GAGCTGGAACATGTTCTGGTTGCAGCCGGAGGATCCTTGCCGCGTTTACAATCTCTGTGGTCAATTAGGGTTTTGTAGCAGCGAATTGCTCAAGCCCTGTGC</t>
+  </si>
+  <si>
+    <t>GTATGCACGACTGGATCACTGAGAACCTCCGTGCGTGTGGCGGCACTTATCAGACATGTATCTGCGCCGTACCTTTCTTGGCAAAAAAGCAAGGTCTCGTGACCGTCACGTGCGATCCCAAGAACATCGAACACATGCTCAAGACCAGGTTCGACAACTACC</t>
+  </si>
+  <si>
+    <t>XSP1</t>
+  </si>
+  <si>
+    <t>RLK4</t>
+  </si>
+  <si>
+    <t>CYP86A2</t>
   </si>
 </sst>
 </file>
@@ -483,13 +501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,6 +636,30 @@
       <c r="D11" s="2"/>
       <c r="H11" s="3"/>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
